--- a/data/income_statement/3digits/total/732_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/732_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>732-Market research and public opinion polling</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>732-Market research and public opinion polling</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>328579.63901</v>
@@ -968,25 +874,30 @@
         <v>646237.77928</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>680988.4546399999</v>
+        <v>721797.6347899999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>765468.0510900001</v>
+        <v>783879.0115400001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>891529.1875899999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>973281.9308000001</v>
+        <v>973998.4594000001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1086434.32455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1111132.01607</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1267719.462</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>263490.13939</v>
@@ -1007,25 +918,30 @@
         <v>551052.8134700001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>571771.6887899999</v>
+        <v>608708.1169100001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>641533.15356</v>
+        <v>641565.49804</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>722719.36202</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>824249.9243</v>
+        <v>824890.5333</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>906567.1976999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>931237.89013</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1126098.752</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>48681.57239</v>
@@ -1046,25 +962,30 @@
         <v>74721.01702000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>88405.15879999999</v>
+        <v>92060.39954000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>87794.46749000001</v>
+        <v>106144.48286</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>130111.27621</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>139521.59505</v>
+        <v>139597.51465</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>169146.71497</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>122332.544</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>16407.92723</v>
@@ -1073,7 +994,7 @@
         <v>2287.58541</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5316.40789</v>
+        <v>5316.407889999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>5298.17937</v>
@@ -1085,10 +1006,10 @@
         <v>20463.94879</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>20811.60705</v>
+        <v>21029.11834</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>36140.43004</v>
+        <v>36169.03064</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>38698.54936</v>
@@ -1097,13 +1018,18 @@
         <v>9510.41145</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10720.41188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10747.41097</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19288.166</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1626.14267</v>
@@ -1127,7 +1053,7 @@
         <v>1564.80509</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6573.696640000001</v>
+        <v>6573.69664</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>8668.47601</v>
@@ -1136,13 +1062,18 @@
         <v>10755.10955</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8162.698510000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8162.69851</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>16677.412</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1011.98279</v>
@@ -1166,10 +1097,10 @@
         <v>1553.30436</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6562.126960000001</v>
+        <v>6562.12696</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7698.46201</v>
+        <v>7698.462009999999</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>10538.40731</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>7336.246980000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>15989.593</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2.8</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>759.15453</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>651.482</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>611.35988</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>67.297</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>36.337</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>326953.49634</v>
@@ -1274,31 +1220,36 @@
         <v>510304.34374</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>594640.77532</v>
+        <v>594640.7753199999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>642700.9201399999</v>
+        <v>642700.9201400001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>679423.64955</v>
+        <v>720232.8296999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>758894.3544500001</v>
+        <v>777305.3148999999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>882860.71158</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>962526.82125</v>
+        <v>963243.3498499999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1078271.62604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1102969.31756</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1251042.05</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>181989.54534</v>
@@ -1313,13 +1264,13 @@
         <v>303585.52691</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>368943.5643499999</v>
+        <v>368943.56435</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>408463.6105</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>439334.6884400001</v>
+        <v>460994.52851</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>470997.0723</v>
@@ -1328,16 +1279,21 @@
         <v>532158.6271599999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>619857.73242</v>
+        <v>620416.95835</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>673630.5258300001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>690711.0249300001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>775742.661</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>81.52549999999999</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>2.28414</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>1011.527</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>166.12873</v>
@@ -1397,10 +1358,10 @@
         <v>129899.62489</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>14828.92943</v>
+        <v>14834.81032</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9416.22724</v>
+        <v>9416.227239999998</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>26184.06808</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>17037.85342</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>96228.03200000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>180979.10798</v>
@@ -1430,13 +1396,13 @@
         <v>301431.53835</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>322823.9929399999</v>
+        <v>322823.99294</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>278389.29015</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>424473.7120000001</v>
+        <v>446127.67118</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>461325.37115</v>
@@ -1445,16 +1411,21 @@
         <v>505949.90249</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>601868.26851</v>
+        <v>602427.49444</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>656574.4911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>673654.9901999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>678448.41</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>762.78313</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>15.89717</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>54.692</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>144963.951</v>
@@ -1514,25 +1490,30 @@
         <v>234237.30964</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>240088.96111</v>
+        <v>259238.30119</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>287897.28215</v>
+        <v>306308.2426</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>350702.08442</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>342669.08883</v>
+        <v>342826.3915</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>404641.1002100001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>412258.29263</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>475299.389</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>96215.93769999999</v>
@@ -1553,25 +1534,30 @@
         <v>199720.18738</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>217866.7954</v>
+        <v>239575.59769</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>248171.84998</v>
+        <v>265888.87344</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>294463.26878</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>294457.1733</v>
+        <v>294539.22653</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>338566.54314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>340248.8558500001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>306472.753</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1588.19627</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2920.06926</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>669.903</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>7787.629910000001</v>
@@ -1631,25 +1622,30 @@
         <v>30909.18157</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>35028.56351000001</v>
+        <v>35442.19541</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>35426.21532</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>29924.18384</v>
+        <v>29924.18384000001</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>21777.13106</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20644.55308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20914.50401</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>15741.796</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>86840.11151999999</v>
@@ -1670,28 +1666,33 @@
         <v>168793.26851</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>182571.89234</v>
+        <v>203867.06273</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>208840.56793</v>
+        <v>226557.59139</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>260624.22498</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>269675.49334</v>
+        <v>269757.54657</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>315001.9208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>316414.28258</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>290061.054</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>48748.0133</v>
+        <v>48748.01330000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>50876.35425</v>
@@ -1709,25 +1710,30 @@
         <v>34517.12226</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>22222.16571</v>
+        <v>19662.7035</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>39725.43217</v>
+        <v>40419.36915999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>56238.81564</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>48211.91553</v>
+        <v>48287.16497</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>66074.55707000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>72009.43678</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>168826.636</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>18220.79387</v>
@@ -1736,37 +1742,42 @@
         <v>13793.38288</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>39547.19875000001</v>
+        <v>39547.19875</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>33530.17243999999</v>
+        <v>33530.17244</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>50076.51061</v>
+        <v>50076.51060999999</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>26903.23743</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>48334.3803</v>
+        <v>49511.3518</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>174611.93656</v>
+        <v>175377.64745</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>99275.48799999998</v>
+        <v>99275.488</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>74751.27209999999</v>
+        <v>74751.39048999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>49456.21785999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>49607.75055</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>77974.648</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>231.68752</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1666.47501</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>6005.79533</v>
@@ -1865,10 +1886,10 @@
         <v>6472.3294</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9038.955699999999</v>
+        <v>9394.625830000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7822.237190000001</v>
+        <v>8089.3203</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>11367.30046</v>
@@ -1877,13 +1898,18 @@
         <v>12515.8931</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16102.05976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16245.71065</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8899.888999999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>11.5106</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1897.828</v>
@@ -1943,7 +1974,7 @@
         <v>100.92651</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>41.12549</v>
+        <v>86.10973</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>118.84736</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>171.81709</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5150.142</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>329.44431</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>46.40615</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>16.296</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>9175.316510000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8952.238300000001</v>
+        <v>8952.238299999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>33008.09288</v>
@@ -2015,16 +2056,16 @@
         <v>19312.04128</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>39089.48508999999</v>
+        <v>39089.48509</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>18136.02543</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>36776.48605000001</v>
+        <v>37195.98823</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>51948.50777999999</v>
+        <v>52447.13556</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>53121.31569</v>
@@ -2033,13 +2074,18 @@
         <v>54128.80773000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>25870.85741999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>25875.70342</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>58624.33</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>23.86254</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>29.148</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>812.4097200000001</v>
@@ -2138,7 +2194,7 @@
         <v>2053.92503</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2325.98319</v>
+        <v>2682.79814</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>4052.33056</v>
@@ -2147,16 +2203,21 @@
         <v>9881.270299999998</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7849.44181</v>
+        <v>7849.5602</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5331.54177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5334.57757</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5221.633</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>12413.8396</v>
@@ -2177,25 +2238,30 @@
         <v>17007.11624</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10342.62863</v>
+        <v>11054.70382</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>37697.63306</v>
+        <v>38052.36085</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>36323.68095999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>53091.79079000001</v>
+        <v>53091.79079</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>45272.48289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>45272.70896</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>67754.57799999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>78.28914</v>
@@ -2228,13 +2294,18 @@
         <v>4.546030000000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1.17026</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1.19265</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>53.935</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1301.90799</v>
@@ -2255,7 +2326,7 @@
         <v>33.53974</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>788.91998</v>
+        <v>902.16902</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>562.81075</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>6456.28266</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1156.744</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>5.152559999999999</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>9197.418609999999</v>
@@ -2321,7 +2402,7 @@
         <v>7288.020050000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9302.303719999998</v>
+        <v>9302.30372</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>24731.67679</v>
@@ -2333,10 +2414,10 @@
         <v>12008.49792</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8396.462940000001</v>
+        <v>8995.169690000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>33760.09457</v>
+        <v>34114.82236</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>31072.20709</v>
@@ -2345,13 +2426,18 @@
         <v>34182.65947</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>16473.37058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>16473.57426</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>38860.36</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1.676</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1829.3953</v>
@@ -2447,10 +2543,10 @@
         <v>719.93237</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4961.91791</v>
+        <v>4961.917909999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1153.80729</v>
+        <v>1153.92669</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>3366.28164</v>
@@ -2464,62 +2560,72 @@
       <c r="M43" s="48" t="n">
         <v>22341.65939</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>27683.539</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>588.5403600000001</v>
+        <v>588.54036</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>530.95217</v>
+        <v>530.9521699999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>963.92297</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5166.041649999999</v>
+        <v>5166.04165</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8668.965310000001</v>
+        <v>8668.965309999998</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>16565.449</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>24941.97956</v>
+        <v>24943.77842</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>25709.91459999999</v>
+        <v>25724.66787</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>44830.52181</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7118.04704</v>
+        <v>7118.383519999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6656.077829999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6690.199529999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6208.345</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>301.1109499999999</v>
+        <v>301.11095</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>446.7760500000001</v>
+        <v>446.77605</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>793.4068300000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4717.77788</v>
+        <v>4717.777880000001</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>4553.93984</v>
@@ -2528,25 +2634,30 @@
         <v>16381.52856</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>24927.12615</v>
+        <v>24928.92501</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>25699.76461999999</v>
+        <v>25714.51789</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>44805.24203</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7102.81864</v>
+        <v>7103.155119999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6650.060179999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6672.65644</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6044.768</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>287.42941</v>
@@ -2579,16 +2690,21 @@
         <v>15.2284</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6.01765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>17.54309</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>163.577</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>53966.42721</v>
+        <v>53966.42721000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>49823.99365999999</v>
@@ -2600,34 +2716,39 @@
         <v>23735.71554</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>62348.22212000001</v>
+        <v>62348.22211999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>27847.79444999999</v>
+        <v>27847.79445</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>35271.93782</v>
+        <v>33175.57306</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>150929.82107</v>
+        <v>152019.98789</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>74360.10087000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>62753.3498</v>
+        <v>62828.38115000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>63602.21421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>69654.27884</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>172838.361</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>920.8117900000001</v>
+        <v>920.81179</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>1011.03187</v>
@@ -2645,25 +2766,30 @@
         <v>10794.45108</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10465.07585</v>
+        <v>11834.13871</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22391.43555</v>
+        <v>22535.94405</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>10744.69683</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15341.54802</v>
+        <v>15351.62954</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>11491.19824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11513.50874</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8104.404</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.8349500000000001</v>
@@ -2687,7 +2813,7 @@
         <v>17.64799</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>114.56622</v>
+        <v>115.17248</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>23.16665</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1287.54466</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>41.881</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>919.9768399999999</v>
@@ -2723,25 +2854,30 @@
         <v>10789.82052</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10447.42786</v>
+        <v>11816.49072</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>22276.86933</v>
+        <v>22420.77157</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>10721.53018</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>14849.66547</v>
+        <v>14859.74699</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10203.65358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10225.96408</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8062.523</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1543.21221</v>
@@ -2762,7 +2898,7 @@
         <v>6517.92816</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>46638.80255</v>
+        <v>46637.11614</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>11897.54184</v>
@@ -2771,16 +2907,21 @@
         <v>2554.79403</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>9887.55682</v>
+        <v>9889.685390000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6935.528149999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6981.91472</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5063.811</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.49754</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>86.84820000000001</v>
+        <v>86.84819999999998</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>64.65351999999999</v>
@@ -2852,13 +2998,18 @@
         <v>169.38393</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>51.90558</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>58.14331</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>138.116</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1455.86647</v>
@@ -2879,7 +3030,7 @@
         <v>6285.37202</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>46471.14223</v>
+        <v>46469.45582</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>11532.59675</v>
@@ -2888,25 +3039,30 @@
         <v>2354.0876</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>9718.17289</v>
+        <v>9720.301459999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6883.62257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6923.77141</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4925.695</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>53344.02679</v>
+        <v>53344.02678999999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>49054.03431</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>53265.24286000001</v>
+        <v>53265.24286</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>22512.08322</v>
@@ -2918,25 +3074,30 @@
         <v>32124.31737</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-901.7888799999953</v>
+        <v>-1627.404370000005</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>161423.71478</v>
+        <v>162658.3901</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>82550.00367000001</v>
+        <v>82550.00366999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>68207.341</v>
+        <v>68290.3253</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>68157.88430000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>74185.87286</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>175878.954</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>11048.8514</v>
@@ -2948,7 +3109,7 @@
         <v>15730.67684</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8768.371260000002</v>
+        <v>8768.37126</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>18064.84964</v>
@@ -2960,22 +3121,27 @@
         <v>15269.80729</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15869.71267</v>
+        <v>16132.75555</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>18482.72646</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>23198.16371</v>
+        <v>23202.7726</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>22201.01332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>23693.03502</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>39207.45</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>42295.17539</v>
@@ -2996,22 +3162,25 @@
         <v>18822.85251</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-16171.59617</v>
+        <v>-16897.21166</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>145554.0021099999</v>
+        <v>146525.63455</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>64067.27721</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>45009.17729</v>
+        <v>45087.5527</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>45956.87098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>50492.83783999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>136671.504</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>173</v>
@@ -3050,22 +3222,25 @@
         <v>258</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>315</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>346</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>